--- a/biology/Biochimie/Phospholipide/Phospholipide.xlsx
+++ b/biology/Biochimie/Phospholipide/Phospholipide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un phospholipide est un lipide contenant un groupe acide phosphorique en tant que mono ou di-ester. Cette famille inclut notamment les acides phosphatidiques et les phosphoglycérides[1]. Ce sont des lipides amphiphiles, c'est-à-dire constitués d'une « tête » polaire (hydrophile) et de deux « queues » aliphatiques (hydrophobes). La plupart des phospholipides sont les phosphoglycérides, dont la tête s'organise autour d'un résidu glycérol-3-phosphate estérifié par une molécule polaire, et les deux queues sont les chaînes aliphatiques de deux acide gras. Les autres phospholipides sont les sphingolipides, qui dérivent structurellement de la sphingosine, des sphingomyélines ou des céramides et non du glycérol, la sphingosine constituant l'une des deux queues aliphatiques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un phospholipide est un lipide contenant un groupe acide phosphorique en tant que mono ou di-ester. Cette famille inclut notamment les acides phosphatidiques et les phosphoglycérides. Ce sont des lipides amphiphiles, c'est-à-dire constitués d'une « tête » polaire (hydrophile) et de deux « queues » aliphatiques (hydrophobes). La plupart des phospholipides sont les phosphoglycérides, dont la tête s'organise autour d'un résidu glycérol-3-phosphate estérifié par une molécule polaire, et les deux queues sont les chaînes aliphatiques de deux acide gras. Les autres phospholipides sont les sphingolipides, qui dérivent structurellement de la sphingosine, des sphingomyélines ou des céramides et non du glycérol, la sphingosine constituant l'une des deux queues aliphatiques.
 Les premiers phospholipides isolés de tissus vivants ont été caractérisés comme tels en 1847 par le chimiste français Théodore Nicolas Gobley à partir de lécithine de jaune d'œuf — il s'agissait plus précisément de phosphatidylcholines. Les phospholipides sont les constituants essentiels des membranes cellulaires où, avec des molécules de cholestérol, ils s'organisent en bicouche lipidique dans laquelle les queues hydrophobes sont orientées vers l'intérieur de la structure tandis que les têtes polaires forment les deux surfaces de la bicouche.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les propriétés physicochimiques des phospholipides dépendent à la fois de la molécule polaire de la tête hydrophile et des chaînes aliphatiques des queues hydrophobes. En milieu aqueux, de telles molécules amphiphiles tendent à s'organiser de telle sorte que seule leur tête hydrophile soit en contact avec les molécules d'eau, ce qui aboutit typiquement à des structures en micelle, en liposome ou en bicouche lipidique.
 C'est la base des structures vivantes, qui s'organisent toujours à partir d'une membrane cellulaire séparant l'intérieur de la cellule du milieu extérieur. Des membranes internes peuvent définir des compartiments intérieurs au sein des cellules eucaryotes — appelés organites — tels que des mitochondries, des chloroplastes, un (ou plusieurs) noyau(x), un réticulum endoplasmique, l'appareil de Golgi, etc.
@@ -547,7 +561,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe deux types de phospholipides :
 Ceux constitués avec de la sphingosine (sérine + acide gras), un acide gras, un phosphate et un alcool azoté.
@@ -582,7 +598,9 @@
           <t>Mobilité des lipides</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les lipides peuvent se mouvoir dans la membrane spontanément ou en utilisant de l'énergie sous forme d'ATP. Il existe ainsi des mouvements :
 latéraux, dans n'importe quelle direction ;
@@ -616,7 +634,9 @@
           <t>Abréviations usuelles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les abréviations pour les phospholipides sont généralement :
 PC pour la phosphatidylcholine ;
